--- a/notebooks/Random Forest/predictions_afr.xlsx
+++ b/notebooks/Random Forest/predictions_afr.xlsx
@@ -468,7 +468,7 @@
         <v>1.305</v>
       </c>
       <c r="D2" t="n">
-        <v>1.263872990509491</v>
+        <v>1.291373049603175</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>1.49</v>
       </c>
       <c r="D3" t="n">
-        <v>1.487520800685425</v>
+        <v>1.462482141955267</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>1.459</v>
       </c>
       <c r="D4" t="n">
-        <v>1.435683011724388</v>
+        <v>1.465613336399712</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>1.635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.596299950396825</v>
+        <v>1.596931855158731</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>1.123</v>
       </c>
       <c r="D6" t="n">
-        <v>1.061278484126984</v>
+        <v>1.080854416666666</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>1.19</v>
       </c>
       <c r="D7" t="n">
-        <v>1.108941654761904</v>
+        <v>1.119958041666666</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>1.147</v>
       </c>
       <c r="D8" t="n">
-        <v>1.07648294047619</v>
+        <v>1.088572369047619</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>1.119</v>
       </c>
       <c r="D9" t="n">
-        <v>1.05714264484127</v>
+        <v>1.062724353174602</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>1.391</v>
       </c>
       <c r="D10" t="n">
-        <v>1.370582081577925</v>
+        <v>1.382215025656695</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>1.222</v>
       </c>
       <c r="D11" t="n">
-        <v>1.182520162518037</v>
+        <v>1.195543341089466</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>1.559</v>
       </c>
       <c r="D12" t="n">
-        <v>1.548355287684538</v>
+        <v>1.571706666056166</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>1.548</v>
       </c>
       <c r="D13" t="n">
-        <v>1.540336567971573</v>
+        <v>1.567724700563326</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>1.346</v>
       </c>
       <c r="D14" t="n">
-        <v>1.332062695149149</v>
+        <v>1.350658155522109</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>1.65</v>
       </c>
       <c r="D15" t="n">
-        <v>1.645618173916584</v>
+        <v>1.661114880615931</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>1.526</v>
       </c>
       <c r="D16" t="n">
-        <v>1.525654282160456</v>
+        <v>1.517964771915585</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>1.183</v>
       </c>
       <c r="D17" t="n">
-        <v>1.104486607142857</v>
+        <v>1.184007073232322</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>1.339</v>
       </c>
       <c r="D18" t="n">
-        <v>1.294971844877345</v>
+        <v>1.297026954004329</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>1.666</v>
       </c>
       <c r="D19" t="n">
-        <v>1.65610197327001</v>
+        <v>1.640994842352092</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>1.34</v>
       </c>
       <c r="D20" t="n">
-        <v>1.295061044011544</v>
+        <v>1.290985803932179</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>1.221</v>
       </c>
       <c r="D21" t="n">
-        <v>1.184136829184704</v>
+        <v>1.235658057789433</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>1.473</v>
       </c>
       <c r="D22" t="n">
-        <v>1.460656473304474</v>
+        <v>1.486780000319126</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>1.552</v>
       </c>
       <c r="D23" t="n">
-        <v>1.543296986185598</v>
+        <v>1.533591108111917</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>1.532</v>
       </c>
       <c r="D24" t="n">
-        <v>1.531291897907647</v>
+        <v>1.519202301046177</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>1.436</v>
       </c>
       <c r="D25" t="n">
-        <v>1.387584471142269</v>
+        <v>1.387749219131208</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>1.642</v>
       </c>
       <c r="D26" t="n">
-        <v>1.632641310703185</v>
+        <v>1.642318459776335</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>1.262</v>
       </c>
       <c r="D27" t="n">
-        <v>1.234280454795205</v>
+        <v>1.244065982572983</v>
       </c>
     </row>
     <row r="28">
@@ -900,7 +900,7 @@
         <v>1.233</v>
       </c>
       <c r="D29" t="n">
-        <v>1.228687066447441</v>
+        <v>1.178556906565656</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         <v>1.34</v>
       </c>
       <c r="D30" t="n">
-        <v>1.299188737193362</v>
+        <v>1.395657796536796</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         <v>1.352</v>
       </c>
       <c r="D31" t="n">
-        <v>1.349785622025051</v>
+        <v>1.300498767857143</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>1.451</v>
       </c>
       <c r="D32" t="n">
-        <v>1.425890987914863</v>
+        <v>1.436864606962482</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>1.913</v>
       </c>
       <c r="D33" t="n">
-        <v>1.908088299603175</v>
+        <v>1.832843726190477</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         <v>1.309</v>
       </c>
       <c r="D34" t="n">
-        <v>1.268554238525364</v>
+        <v>1.267765405192031</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         <v>1.257</v>
       </c>
       <c r="D35" t="n">
-        <v>1.236535835747586</v>
+        <v>1.257693105769232</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>1.492</v>
       </c>
       <c r="D36" t="n">
-        <v>1.487074880550005</v>
+        <v>1.487244880550006</v>
       </c>
     </row>
     <row r="37">
@@ -1028,7 +1028,7 @@
         <v>1.495</v>
       </c>
       <c r="D37" t="n">
-        <v>1.486211419150294</v>
+        <v>1.498106623515373</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1044,7 @@
         <v>1.502</v>
       </c>
       <c r="D38" t="n">
-        <v>1.485236067959818</v>
+        <v>1.459610278860029</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v>1.171</v>
       </c>
       <c r="D39" t="n">
-        <v>1.098759059523809</v>
+        <v>1.103337309523809</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>1.198</v>
       </c>
       <c r="D40" t="n">
-        <v>1.162599077200577</v>
+        <v>1.109357892857142</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         <v>1.527</v>
       </c>
       <c r="D41" t="n">
-        <v>1.515376046090605</v>
+        <v>1.538278867560802</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         <v>1.444</v>
       </c>
       <c r="D42" t="n">
-        <v>1.403916438178012</v>
+        <v>1.385726738972478</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>1.305</v>
       </c>
       <c r="D43" t="n">
-        <v>1.265446872655123</v>
+        <v>1.285000035353535</v>
       </c>
     </row>
     <row r="44">
@@ -1140,7 +1140,7 @@
         <v>1.346</v>
       </c>
       <c r="D44" t="n">
-        <v>1.335794828268953</v>
+        <v>1.294233996392496</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1156,7 @@
         <v>2.03</v>
       </c>
       <c r="D45" t="n">
-        <v>2.009914397255521</v>
+        <v>2.039317713092462</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>1.414</v>
       </c>
       <c r="D46" t="n">
-        <v>1.381160177909084</v>
+        <v>1.381564125595359</v>
       </c>
     </row>
     <row r="47">
@@ -1188,7 +1188,7 @@
         <v>1.597</v>
       </c>
       <c r="D47" t="n">
-        <v>1.574435117729492</v>
+        <v>1.634954904761905</v>
       </c>
     </row>
     <row r="48">
@@ -1204,7 +1204,7 @@
         <v>1.745</v>
       </c>
       <c r="D48" t="n">
-        <v>1.74050953468672</v>
+        <v>1.738298739814925</v>
       </c>
     </row>
     <row r="49">
@@ -1220,7 +1220,7 @@
         <v>1.806</v>
       </c>
       <c r="D49" t="n">
-        <v>1.812760134740262</v>
+        <v>1.822261323023469</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         <v>1.443</v>
       </c>
       <c r="D50" t="n">
-        <v>1.413265212874076</v>
+        <v>1.400808635215623</v>
       </c>
     </row>
     <row r="51">
@@ -1252,7 +1252,7 @@
         <v>1.534</v>
       </c>
       <c r="D51" t="n">
-        <v>1.53360957576926</v>
+        <v>1.503552709810658</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1268,7 @@
         <v>1.564</v>
       </c>
       <c r="D52" t="n">
-        <v>1.548561822649573</v>
+        <v>1.540493440222303</v>
       </c>
     </row>
     <row r="53">
@@ -1284,7 +1284,7 @@
         <v>1.419</v>
       </c>
       <c r="D53" t="n">
-        <v>1.373492430066698</v>
+        <v>1.389495422615816</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         <v>1.381</v>
       </c>
       <c r="D54" t="n">
-        <v>1.37388055944056</v>
+        <v>1.379237742780069</v>
       </c>
     </row>
     <row r="55">
@@ -1332,7 +1332,7 @@
         <v>1.619</v>
       </c>
       <c r="D56" t="n">
-        <v>1.597312189213565</v>
+        <v>1.656104008151796</v>
       </c>
     </row>
     <row r="57">
@@ -1348,7 +1348,7 @@
         <v>1.52</v>
       </c>
       <c r="D57" t="n">
-        <v>1.521178475323288</v>
+        <v>1.548067824253304</v>
       </c>
     </row>
     <row r="58">
@@ -1364,7 +1364,7 @@
         <v>1.454</v>
       </c>
       <c r="D58" t="n">
-        <v>1.438538301406927</v>
+        <v>1.407205980991923</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         <v>2.442</v>
       </c>
       <c r="D59" t="n">
-        <v>2.381523269466645</v>
+        <v>2.459845101731603</v>
       </c>
     </row>
     <row r="60">
@@ -1396,7 +1396,7 @@
         <v>1.522</v>
       </c>
       <c r="D60" t="n">
-        <v>1.519156228174604</v>
+        <v>1.533080288554526</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1412,7 @@
         <v>1.272</v>
       </c>
       <c r="D61" t="n">
-        <v>1.243825355588857</v>
+        <v>1.242127311938063</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         <v>1.104</v>
       </c>
       <c r="D62" t="n">
-        <v>1.061630823412698</v>
+        <v>1.068045865079364</v>
       </c>
     </row>
     <row r="63">
@@ -1444,7 +1444,7 @@
         <v>1.33</v>
       </c>
       <c r="D63" t="n">
-        <v>1.291358327380953</v>
+        <v>1.294637494047619</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>1.103</v>
       </c>
       <c r="D64" t="n">
-        <v>1.059738478174603</v>
+        <v>1.060571811507936</v>
       </c>
     </row>
     <row r="65">
@@ -1476,7 +1476,7 @@
         <v>1.736</v>
       </c>
       <c r="D65" t="n">
-        <v>1.702922159011535</v>
+        <v>1.729289370345157</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         <v>1.551</v>
       </c>
       <c r="D66" t="n">
-        <v>1.54609258129541</v>
+        <v>1.546887673400674</v>
       </c>
     </row>
     <row r="67">
@@ -1524,7 +1524,7 @@
         <v>1.297</v>
       </c>
       <c r="D68" t="n">
-        <v>1.269336647255523</v>
+        <v>1.264224548049174</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>1.207</v>
       </c>
       <c r="D69" t="n">
-        <v>1.170785142676767</v>
+        <v>1.184434231962481</v>
       </c>
     </row>
     <row r="70">
@@ -1556,7 +1556,7 @@
         <v>1.278</v>
       </c>
       <c r="D70" t="n">
-        <v>1.241145268287269</v>
+        <v>1.252879704795205</v>
       </c>
     </row>
     <row r="71">
@@ -1572,7 +1572,7 @@
         <v>1.189</v>
       </c>
       <c r="D71" t="n">
-        <v>1.104522226190476</v>
+        <v>1.17998718037518</v>
       </c>
     </row>
     <row r="72">
@@ -1604,7 +1604,7 @@
         <v>1.72</v>
       </c>
       <c r="D73" t="n">
-        <v>1.707719704365359</v>
+        <v>1.70771970436536</v>
       </c>
     </row>
     <row r="74">
@@ -1620,7 +1620,7 @@
         <v>1.399</v>
       </c>
       <c r="D74" t="n">
-        <v>1.377593299541978</v>
+        <v>1.385649023327154</v>
       </c>
     </row>
     <row r="75">
@@ -1636,7 +1636,7 @@
         <v>1.34</v>
       </c>
       <c r="D75" t="n">
-        <v>1.29543318452381</v>
+        <v>1.296922121031746</v>
       </c>
     </row>
     <row r="76">
@@ -1652,7 +1652,7 @@
         <v>1.463</v>
       </c>
       <c r="D76" t="n">
-        <v>1.437085894660895</v>
+        <v>1.472994753066378</v>
       </c>
     </row>
     <row r="77">
@@ -1668,7 +1668,7 @@
         <v>1.659</v>
       </c>
       <c r="D77" t="n">
-        <v>1.651337614392776</v>
+        <v>1.652842965583252</v>
       </c>
     </row>
     <row r="78">
@@ -1684,7 +1684,7 @@
         <v>1.471</v>
       </c>
       <c r="D78" t="n">
-        <v>1.441803533730159</v>
+        <v>1.441832563492063</v>
       </c>
     </row>
     <row r="79">
@@ -1700,7 +1700,7 @@
         <v>2.66</v>
       </c>
       <c r="D79" t="n">
-        <v>2.639683866883117</v>
+        <v>2.649130948232322</v>
       </c>
     </row>
     <row r="80">
@@ -1716,7 +1716,7 @@
         <v>1.402</v>
       </c>
       <c r="D80" t="n">
-        <v>1.381027549694603</v>
+        <v>1.384772848571354</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         <v>1.68</v>
       </c>
       <c r="D81" t="n">
-        <v>1.666067163624589</v>
+        <v>1.651541644154681</v>
       </c>
     </row>
     <row r="82">
@@ -1748,7 +1748,7 @@
         <v>1.946</v>
       </c>
       <c r="D82" t="n">
-        <v>1.948798595714069</v>
+        <v>1.909437232683984</v>
       </c>
     </row>
     <row r="83">
@@ -1764,7 +1764,7 @@
         <v>1.316</v>
       </c>
       <c r="D83" t="n">
-        <v>1.281521470848596</v>
+        <v>1.280010443070819</v>
       </c>
     </row>
     <row r="84">
@@ -1780,7 +1780,7 @@
         <v>1.424</v>
       </c>
       <c r="D84" t="n">
-        <v>1.401912952416236</v>
+        <v>1.401762851406135</v>
       </c>
     </row>
     <row r="85">
@@ -1796,7 +1796,7 @@
         <v>1.257</v>
       </c>
       <c r="D85" t="n">
-        <v>1.245389347652349</v>
+        <v>1.248971165112666</v>
       </c>
     </row>
     <row r="86">
